--- a/outcome/simulate data/B_Typhoid fever and paratyphoid fever.xlsx
+++ b/outcome/simulate data/B_Typhoid fever and paratyphoid fever.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>1027.98934517739</v>
+        <v>929.442559706824</v>
       </c>
       <c r="C2" t="n">
-        <v>756.670351052595</v>
+        <v>677.011377165087</v>
       </c>
       <c r="D2" t="n">
-        <v>613.042751451954</v>
+        <v>543.382381046427</v>
       </c>
       <c r="E2" t="n">
-        <v>1299.30833930218</v>
+        <v>1181.87374224856</v>
       </c>
       <c r="F2" t="n">
-        <v>1442.93593890283</v>
+        <v>1315.50273836722</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>1098.75614040723</v>
+        <v>1040.78059237634</v>
       </c>
       <c r="C3" t="n">
-        <v>827.315488262015</v>
+        <v>788.191163595985</v>
       </c>
       <c r="D3" t="n">
-        <v>683.623486795585</v>
+        <v>654.478396978795</v>
       </c>
       <c r="E3" t="n">
-        <v>1370.19679255245</v>
+        <v>1293.37002115669</v>
       </c>
       <c r="F3" t="n">
-        <v>1513.88879401888</v>
+        <v>1427.08278777388</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>1110.06703031865</v>
+        <v>1066.80152631616</v>
       </c>
       <c r="C4" t="n">
-        <v>838.558628245788</v>
+        <v>814.12519562224</v>
       </c>
       <c r="D4" t="n">
-        <v>694.830762134081</v>
+        <v>680.366425910848</v>
       </c>
       <c r="E4" t="n">
-        <v>1381.57543239152</v>
+        <v>1319.47785701007</v>
       </c>
       <c r="F4" t="n">
-        <v>1525.30329850322</v>
+        <v>1453.23662672146</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>911.671280329296</v>
+        <v>873.079712464527</v>
       </c>
       <c r="C5" t="n">
-        <v>640.126893156076</v>
+        <v>620.355673135374</v>
       </c>
       <c r="D5" t="n">
-        <v>496.379977682926</v>
+        <v>486.571647998052</v>
       </c>
       <c r="E5" t="n">
-        <v>1183.21566750252</v>
+        <v>1125.80375179368</v>
       </c>
       <c r="F5" t="n">
-        <v>1326.96258297567</v>
+        <v>1259.587776931</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>783.640997059835</v>
+        <v>776.081322928762</v>
       </c>
       <c r="C6" t="n">
-        <v>512.080635796952</v>
+        <v>523.331133357904</v>
       </c>
       <c r="D6" t="n">
-        <v>368.325264151534</v>
+        <v>389.533265118823</v>
       </c>
       <c r="E6" t="n">
-        <v>1055.20135832272</v>
+        <v>1028.83151249962</v>
       </c>
       <c r="F6" t="n">
-        <v>1198.95672996814</v>
+        <v>1162.6293807387</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>526.236626836298</v>
+        <v>567.068723617318</v>
       </c>
       <c r="C7" t="n">
-        <v>254.675086561698</v>
+        <v>314.304280857629</v>
       </c>
       <c r="D7" t="n">
-        <v>110.919090785178</v>
+        <v>180.498867436151</v>
       </c>
       <c r="E7" t="n">
-        <v>797.798167110898</v>
+        <v>819.833166377007</v>
       </c>
       <c r="F7" t="n">
-        <v>941.554162887418</v>
+        <v>953.638579798485</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>416.468310531001</v>
+        <v>455.816242528364</v>
       </c>
       <c r="C8" t="n">
-        <v>144.920001443477</v>
+        <v>203.044179138075</v>
       </c>
       <c r="D8" t="n">
-        <v>1.17100983430515</v>
+        <v>69.2347315984397</v>
       </c>
       <c r="E8" t="n">
-        <v>688.016619618525</v>
+        <v>708.588305918654</v>
       </c>
       <c r="F8" t="n">
-        <v>831.765611227697</v>
+        <v>842.397753458289</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>304.944427932999</v>
+        <v>450.702158808946</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8359760469935</v>
+        <v>192.269183206333</v>
       </c>
       <c r="D9" t="n">
-        <v>-115.797641318038</v>
+        <v>55.4630297588453</v>
       </c>
       <c r="E9" t="n">
-        <v>580.052879819005</v>
+        <v>709.13513441156</v>
       </c>
       <c r="F9" t="n">
-        <v>725.686497184036</v>
+        <v>845.941287859047</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>264.992458950372</v>
+        <v>290.402764338183</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.1394694011216</v>
+        <v>28.9108309873162</v>
       </c>
       <c r="D10" t="n">
-        <v>-158.844250502861</v>
+        <v>-109.514636876688</v>
       </c>
       <c r="E10" t="n">
-        <v>542.124387301866</v>
+        <v>551.894697689049</v>
       </c>
       <c r="F10" t="n">
-        <v>688.829168403605</v>
+        <v>690.320165553054</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>478.600201506848</v>
+        <v>456.234609441933</v>
       </c>
       <c r="C11" t="n">
-        <v>200.323417904469</v>
+        <v>193.076780938179</v>
       </c>
       <c r="D11" t="n">
-        <v>53.0125870416172</v>
+        <v>53.7694414500831</v>
       </c>
       <c r="E11" t="n">
-        <v>756.876985109227</v>
+        <v>719.392437945686</v>
       </c>
       <c r="F11" t="n">
-        <v>904.187815972079</v>
+        <v>858.699777433782</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>538.254659390137</v>
+        <v>628.673596021818</v>
       </c>
       <c r="C12" t="n">
-        <v>259.328614511542</v>
+        <v>364.604759378564</v>
       </c>
       <c r="D12" t="n">
-        <v>111.674085490301</v>
+        <v>224.815161312461</v>
       </c>
       <c r="E12" t="n">
-        <v>817.180704268732</v>
+        <v>892.742432665072</v>
       </c>
       <c r="F12" t="n">
-        <v>964.835233289973</v>
+        <v>1032.53203073118</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>783.781513994657</v>
+        <v>775.421560261804</v>
       </c>
       <c r="C13" t="n">
-        <v>504.486926084024</v>
+        <v>510.853422306838</v>
       </c>
       <c r="D13" t="n">
-        <v>356.637302166417</v>
+        <v>370.799510092329</v>
       </c>
       <c r="E13" t="n">
-        <v>1063.07610190529</v>
+        <v>1039.98969821677</v>
       </c>
       <c r="F13" t="n">
-        <v>1210.9257258229</v>
+        <v>1180.04361043128</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>985.996424332945</v>
+        <v>886.969370074882</v>
       </c>
       <c r="C14" t="n">
-        <v>706.492783619073</v>
+        <v>622.127249921666</v>
       </c>
       <c r="D14" t="n">
-        <v>558.532493832251</v>
+        <v>481.928300292452</v>
       </c>
       <c r="E14" t="n">
-        <v>1265.50006504682</v>
+        <v>1151.8114902281</v>
       </c>
       <c r="F14" t="n">
-        <v>1413.46035483364</v>
+        <v>1292.01043985731</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>1056.76326837176</v>
+        <v>998.307015044773</v>
       </c>
       <c r="C15" t="n">
-        <v>777.141536550794</v>
+        <v>733.314460073085</v>
       </c>
       <c r="D15" t="n">
-        <v>629.118733108041</v>
+        <v>593.035875061382</v>
       </c>
       <c r="E15" t="n">
-        <v>1336.38500019273</v>
+        <v>1263.29957001646</v>
       </c>
       <c r="F15" t="n">
-        <v>1484.40780363548</v>
+        <v>1403.57815502816</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>1068.07419510323</v>
+        <v>1024.3276615778</v>
       </c>
       <c r="C16" t="n">
-        <v>788.38669847396</v>
+        <v>759.252490669059</v>
       </c>
       <c r="D16" t="n">
-        <v>640.329081244637</v>
+        <v>618.930171422065</v>
       </c>
       <c r="E16" t="n">
-        <v>1347.76169173249</v>
+        <v>1289.40283248654</v>
       </c>
       <c r="F16" t="n">
-        <v>1495.81930896181</v>
+        <v>1429.72515173354</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>869.678472889818</v>
+        <v>830.605634667771</v>
       </c>
       <c r="C17" t="n">
-        <v>589.956045291502</v>
+        <v>565.485107055327</v>
       </c>
       <c r="D17" t="n">
-        <v>441.879936724141</v>
+        <v>425.138777419753</v>
       </c>
       <c r="E17" t="n">
-        <v>1149.40090048813</v>
+        <v>1095.72616228022</v>
       </c>
       <c r="F17" t="n">
-        <v>1297.4770090555</v>
+        <v>1236.07249191579</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>741.64821057371</v>
+        <v>733.607087189034</v>
       </c>
       <c r="C18" t="n">
-        <v>461.910276979121</v>
+        <v>468.46169830605</v>
       </c>
       <c r="D18" t="n">
-        <v>313.825960033164</v>
+        <v>328.102207908832</v>
       </c>
       <c r="E18" t="n">
-        <v>1021.3861441683</v>
+        <v>998.752476072019</v>
       </c>
       <c r="F18" t="n">
-        <v>1169.47046111426</v>
+        <v>1139.11196646924</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>484.243856156761</v>
+        <v>524.594370792405</v>
       </c>
       <c r="C19" t="n">
-        <v>204.504778640532</v>
+        <v>259.435431468154</v>
       </c>
       <c r="D19" t="n">
-        <v>56.4198561390378</v>
+        <v>119.068767900629</v>
       </c>
       <c r="E19" t="n">
-        <v>763.98293367299</v>
+        <v>789.753310116655</v>
       </c>
       <c r="F19" t="n">
-        <v>912.067856174485</v>
+        <v>930.11997368418</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>374.475551775487</v>
+        <v>413.341802906675</v>
       </c>
       <c r="C20" t="n">
-        <v>94.7493189998032</v>
+        <v>148.175619196336</v>
       </c>
       <c r="D20" t="n">
-        <v>-53.3288039067792</v>
+        <v>7.80512068246713</v>
       </c>
       <c r="E20" t="n">
-        <v>654.20178455117</v>
+        <v>678.507986617015</v>
       </c>
       <c r="F20" t="n">
-        <v>802.279907457753</v>
+        <v>818.878485130884</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>262.951678172613</v>
+        <v>408.227654843675</v>
       </c>
       <c r="C21" t="n">
-        <v>-20.2318984870421</v>
+        <v>137.66014029208</v>
       </c>
       <c r="D21" t="n">
-        <v>-170.140228691314</v>
+        <v>-5.56965005235458</v>
       </c>
       <c r="E21" t="n">
-        <v>546.135254832269</v>
+        <v>678.79516939527</v>
       </c>
       <c r="F21" t="n">
-        <v>696.04358503654</v>
+        <v>822.024959739705</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>222.999715975645</v>
+        <v>247.928212674175</v>
       </c>
       <c r="C22" t="n">
-        <v>-62.1500369745029</v>
+        <v>-25.5623572170222</v>
       </c>
       <c r="D22" t="n">
-        <v>-213.09919803511</v>
+        <v>-170.339519588547</v>
       </c>
       <c r="E22" t="n">
-        <v>508.149468925793</v>
+        <v>521.418782565372</v>
       </c>
       <c r="F22" t="n">
-        <v>659.098629986401</v>
+        <v>666.195944936896</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>436.607463651021</v>
+        <v>413.760022418229</v>
       </c>
       <c r="C23" t="n">
-        <v>150.34492137655</v>
+        <v>138.67632728956</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.1933147690109</v>
+        <v>-6.9441846397774</v>
       </c>
       <c r="E23" t="n">
-        <v>722.870005925491</v>
+        <v>688.843717546899</v>
       </c>
       <c r="F23" t="n">
-        <v>874.408242071052</v>
+        <v>834.464229476236</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>496.261925395856</v>
+        <v>586.198982785511</v>
       </c>
       <c r="C24" t="n">
-        <v>209.368194695254</v>
+        <v>310.24371114876</v>
       </c>
       <c r="D24" t="n">
-        <v>57.4958275802292</v>
+        <v>164.161814486195</v>
       </c>
       <c r="E24" t="n">
-        <v>783.155656096457</v>
+        <v>862.154254422262</v>
       </c>
       <c r="F24" t="n">
-        <v>935.028023211482</v>
+        <v>1008.23615108483</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>741.788782913412</v>
+        <v>732.946927593752</v>
       </c>
       <c r="C25" t="n">
-        <v>454.536732110215</v>
+        <v>456.513858381174</v>
       </c>
       <c r="D25" t="n">
-        <v>302.474681790774</v>
+        <v>310.179030960361</v>
       </c>
       <c r="E25" t="n">
-        <v>1029.04083371661</v>
+        <v>1009.37999680633</v>
       </c>
       <c r="F25" t="n">
-        <v>1181.10288403605</v>
+        <v>1155.71482422714</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>944.003695449208</v>
+        <v>844.494723001823</v>
       </c>
       <c r="C26" t="n">
-        <v>656.54837922067</v>
+        <v>567.799439122958</v>
       </c>
       <c r="D26" t="n">
-        <v>504.378726684813</v>
+        <v>421.325803642575</v>
       </c>
       <c r="E26" t="n">
-        <v>1231.45901167775</v>
+        <v>1121.19000688069</v>
       </c>
       <c r="F26" t="n">
-        <v>1383.6286642136</v>
+        <v>1267.66364236107</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>1014.77054114576</v>
+        <v>955.832357293096</v>
       </c>
       <c r="C27" t="n">
-        <v>727.200399355617</v>
+        <v>678.993090085687</v>
       </c>
       <c r="D27" t="n">
-        <v>574.96996183919</v>
+        <v>532.443234435285</v>
       </c>
       <c r="E27" t="n">
-        <v>1302.3406829359</v>
+        <v>1232.67162450051</v>
       </c>
       <c r="F27" t="n">
-        <v>1454.57112045233</v>
+        <v>1379.22148015091</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>1026.08146912777</v>
+        <v>981.852995909925</v>
       </c>
       <c r="C28" t="n">
-        <v>738.447379964068</v>
+        <v>704.934652886855</v>
       </c>
       <c r="D28" t="n">
-        <v>586.183090752906</v>
+        <v>558.342937028227</v>
       </c>
       <c r="E28" t="n">
-        <v>1313.71555829147</v>
+        <v>1258.771338933</v>
       </c>
       <c r="F28" t="n">
-        <v>1465.97984750263</v>
+        <v>1405.36305479162</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>827.685747857736</v>
+        <v>788.130963131513</v>
       </c>
       <c r="C29" t="n">
-        <v>540.017692726206</v>
+        <v>511.169206079459</v>
       </c>
       <c r="D29" t="n">
-        <v>387.735423017796</v>
+        <v>364.554508222126</v>
       </c>
       <c r="E29" t="n">
-        <v>1115.35380298927</v>
+        <v>1065.09272018357</v>
       </c>
       <c r="F29" t="n">
-        <v>1267.63607269768</v>
+        <v>1211.7074180409</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>699.655486253282</v>
+        <v>691.132411302467</v>
       </c>
       <c r="C30" t="n">
-        <v>411.972353427268</v>
+        <v>414.146857554253</v>
       </c>
       <c r="D30" t="n">
-        <v>259.682102069533</v>
+        <v>267.519562486912</v>
       </c>
       <c r="E30" t="n">
-        <v>987.338619079296</v>
+        <v>968.117965050682</v>
       </c>
       <c r="F30" t="n">
-        <v>1139.62887043703</v>
+        <v>1114.74526011802</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>442.251132373185</v>
+        <v>482.119691680898</v>
       </c>
       <c r="C31" t="n">
-        <v>154.566887238715</v>
+        <v>205.121167658498</v>
       </c>
       <c r="D31" t="n">
-        <v>2.27604706045202</v>
+        <v>58.4870065427498</v>
       </c>
       <c r="E31" t="n">
-        <v>729.935377507654</v>
+        <v>759.118215703297</v>
       </c>
       <c r="F31" t="n">
-        <v>882.226217685918</v>
+        <v>905.752376819045</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>332.482828396894</v>
+        <v>370.867121404478</v>
       </c>
       <c r="C32" t="n">
-        <v>44.8110732573172</v>
+        <v>93.8616631585693</v>
       </c>
       <c r="D32" t="n">
-        <v>-107.473155117039</v>
+        <v>-52.7761687133707</v>
       </c>
       <c r="E32" t="n">
-        <v>620.154583536471</v>
+        <v>647.872579650386</v>
       </c>
       <c r="F32" t="n">
-        <v>772.438811910828</v>
+        <v>794.510411522326</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>220.958955099529</v>
+        <v>365.752971569228</v>
       </c>
       <c r="C33" t="n">
-        <v>-70.0757702828402</v>
+        <v>83.5727224220715</v>
       </c>
       <c r="D33" t="n">
-        <v>-224.140247567004</v>
+        <v>-65.8044782801969</v>
       </c>
       <c r="E33" t="n">
-        <v>511.993680481898</v>
+        <v>647.933220716385</v>
       </c>
       <c r="F33" t="n">
-        <v>666.058157766062</v>
+        <v>797.310421418653</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>181.006993133027</v>
+        <v>205.453528085936</v>
       </c>
       <c r="C34" t="n">
-        <v>-111.941218726694</v>
+        <v>-79.5306849688002</v>
       </c>
       <c r="D34" t="n">
-        <v>-267.018634564963</v>
+        <v>-230.392214502198</v>
       </c>
       <c r="E34" t="n">
-        <v>473.955204992748</v>
+        <v>490.437741140672</v>
       </c>
       <c r="F34" t="n">
-        <v>629.032620831017</v>
+        <v>641.29927067407</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>394.614740982259</v>
+        <v>371.285336856059</v>
       </c>
       <c r="C35" t="n">
-        <v>100.583252367357</v>
+        <v>84.7719036034317</v>
       </c>
       <c r="D35" t="n">
-        <v>-55.0676155454778</v>
+        <v>-66.8991462032977</v>
       </c>
       <c r="E35" t="n">
-        <v>688.646229597162</v>
+        <v>657.798770108687</v>
       </c>
       <c r="F35" t="n">
-        <v>844.297097509997</v>
+        <v>809.469819915416</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>454.269202858247</v>
+        <v>543.724296501353</v>
       </c>
       <c r="C36" t="n">
-        <v>159.62316795854</v>
+        <v>256.373954437641</v>
       </c>
       <c r="D36" t="n">
-        <v>3.64697889369813</v>
+        <v>104.259871867915</v>
       </c>
       <c r="E36" t="n">
-        <v>748.915237757954</v>
+        <v>831.074638565064</v>
       </c>
       <c r="F36" t="n">
-        <v>904.891426822796</v>
+        <v>983.188721134791</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>699.796060474741</v>
+        <v>690.472240774375</v>
       </c>
       <c r="C37" t="n">
-        <v>404.801121796817</v>
+        <v>402.66301861142</v>
       </c>
       <c r="D37" t="n">
-        <v>248.640234228583</v>
+        <v>250.30601959063</v>
       </c>
       <c r="E37" t="n">
-        <v>994.790999152664</v>
+        <v>978.28146293733</v>
       </c>
       <c r="F37" t="n">
-        <v>1150.9518867209</v>
+        <v>1130.63846195812</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
